--- a/Results_Collection/Cornet_z pretrained results/RDM_Evaluation_Results/R2_squared_linear_regression/R² and noise ceilling results.xlsx
+++ b/Results_Collection/Cornet_z pretrained results/RDM_Evaluation_Results/R2_squared_linear_regression/R² and noise ceilling results.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\PycharmProjects\untitled2\Numerosity-in-Neural-Networks\Results_Collection\Cornet_z pretrained results\RDM_Evaluation_Results\R2_squared_linear_regression\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C69ECDF-A3B8-4F07-A08C-6D714245962A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="22">
   <si>
     <t>ROI</t>
   </si>
@@ -86,23 +102,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,26 +134,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,20 +458,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,1157 +490,1169 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.1185823594614382</v>
-      </c>
-      <c r="D2" t="n">
-        <v>37.92802495351918</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7.817778268954787e-06</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.3126510267981549</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="C2">
+        <v>0.11858235946143821</v>
+      </c>
+      <c r="D2">
+        <v>37.928024953519177</v>
+      </c>
+      <c r="E2">
+        <v>7.8177782689547868E-6</v>
+      </c>
+      <c r="F2">
+        <v>0.31265102679815487</v>
+      </c>
+      <c r="G2">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.1572712405687264</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50.30248650686809</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6.185710336934015e-06</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.3126510267981549</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="C3">
+        <v>0.15727124056872641</v>
+      </c>
+      <c r="D3">
+        <v>50.302486506868092</v>
+      </c>
+      <c r="E3">
+        <v>6.1857103369340149E-6</v>
+      </c>
+      <c r="F3">
+        <v>0.31265102679815487</v>
+      </c>
+      <c r="G3">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.1677464485044483</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>0.16774644850444831</v>
+      </c>
+      <c r="D4">
         <v>53.65293382284144</v>
       </c>
-      <c r="E4" t="n">
-        <v>5.637979116156601e-06</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3126510267981549</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="E4">
+        <v>5.6379791161566013E-6</v>
+      </c>
+      <c r="F4">
+        <v>0.31265102679815487</v>
+      </c>
+      <c r="G4">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.1164687154897031</v>
       </c>
-      <c r="D5" t="n">
-        <v>37.25198560275141</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.359919734523792e-06</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3126510267981549</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="D5">
+        <v>37.251985602751411</v>
+      </c>
+      <c r="E5">
+        <v>5.3599197345237924E-6</v>
+      </c>
+      <c r="F5">
+        <v>0.31265102679815487</v>
+      </c>
+      <c r="G5">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.07567641300281411</v>
-      </c>
-      <c r="D6" t="n">
-        <v>24.20475434794277</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0004945278664945112</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.3126510267981549</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.3647503307910703</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="C6">
+        <v>7.5676413002814108E-2</v>
+      </c>
+      <c r="D6">
+        <v>24.204754347942771</v>
+      </c>
+      <c r="E6">
+        <v>4.9452786649451116E-4</v>
+      </c>
+      <c r="F6">
+        <v>0.31265102679815487</v>
+      </c>
+      <c r="G6">
+        <v>0.36475033079107028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.1411949375964496</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>37.53928002019515</v>
       </c>
-      <c r="E7" t="n">
-        <v>1.167321132900183e-05</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.3761258540933402</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="E7">
+        <v>1.1673211329001831E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.37612585409334021</v>
+      </c>
+      <c r="G7">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.1985382464826577</v>
-      </c>
-      <c r="D8" t="n">
-        <v>52.7850570020608</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.783074961176574e-06</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.3761258540933402</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="C8">
+        <v>0.19853824648265769</v>
+      </c>
+      <c r="D8">
+        <v>52.785057002060803</v>
+      </c>
+      <c r="E8">
+        <v>4.7830749611765743E-6</v>
+      </c>
+      <c r="F8">
+        <v>0.37612585409334021</v>
+      </c>
+      <c r="G8">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.2258324483050873</v>
-      </c>
-      <c r="D9" t="n">
-        <v>60.04172429184946</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.472187200587007e-06</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.3761258540933402</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="C9">
+        <v>0.22583244830508731</v>
+      </c>
+      <c r="D9">
+        <v>60.041724291849462</v>
+      </c>
+      <c r="E9">
+        <v>2.4721872005870069E-6</v>
+      </c>
+      <c r="F9">
+        <v>0.37612585409334021</v>
+      </c>
+      <c r="G9">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.1766993342397816</v>
       </c>
-      <c r="D10" t="n">
-        <v>46.97877912852316</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8.33695901558047e-07</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.3761258540933402</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="D10">
+        <v>46.978779128523158</v>
+      </c>
+      <c r="E10">
+        <v>8.3369590155804703E-7</v>
+      </c>
+      <c r="F10">
+        <v>0.37612585409334021</v>
+      </c>
+      <c r="G10">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.1219564012227471</v>
       </c>
-      <c r="D11" t="n">
-        <v>32.42436006339574</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.225592324397573e-05</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.3761258540933402</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.4233388076771707</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="D11">
+        <v>32.424360063395739</v>
+      </c>
+      <c r="E11">
+        <v>1.225592324397573E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.37612585409334021</v>
+      </c>
+      <c r="G11">
+        <v>0.42333880767717069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.129354081608772</v>
-      </c>
-      <c r="D12" t="n">
-        <v>42.54901891223398</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.461121517739136e-05</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.3040119018386562</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="C12">
+        <v>0.12935408160877199</v>
+      </c>
+      <c r="D12">
+        <v>42.549018912233983</v>
+      </c>
+      <c r="E12">
+        <v>5.4611215177391363E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.30401190183865617</v>
+      </c>
+      <c r="G12">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.1790628974365243</v>
-      </c>
-      <c r="D13" t="n">
-        <v>58.89996291380586</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.101978039260509e-05</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.3040119018386562</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="C13">
+        <v>0.17906289743652429</v>
+      </c>
+      <c r="D13">
+        <v>58.899962913805858</v>
+      </c>
+      <c r="E13">
+        <v>2.1019780392605091E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.30401190183865617</v>
+      </c>
+      <c r="G13">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.2025666738760163</v>
-      </c>
-      <c r="D14" t="n">
-        <v>66.63116563887738</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.53094556252e-06</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.3040119018386562</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="C14">
+        <v>0.20256667387601629</v>
+      </c>
+      <c r="D14">
+        <v>66.631165638877377</v>
+      </c>
+      <c r="E14">
+        <v>9.5309455625199999E-6</v>
+      </c>
+      <c r="F14">
+        <v>0.30401190183865617</v>
+      </c>
+      <c r="G14">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.1568468345932916</v>
       </c>
-      <c r="D15" t="n">
-        <v>51.59233360427206</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.62341596741847e-06</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.3040119018386562</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="D15">
+        <v>51.592333604272063</v>
+      </c>
+      <c r="E15">
+        <v>2.62341596741847E-6</v>
+      </c>
+      <c r="F15">
+        <v>0.30401190183865617</v>
+      </c>
+      <c r="G15">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.09609541708219885</v>
-      </c>
-      <c r="D16" t="n">
-        <v>31.60909704554862</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.677926487863017e-05</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.3040119018386562</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.3593122356878429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="C16">
+        <v>9.6095417082198847E-2</v>
+      </c>
+      <c r="D16">
+        <v>31.609097045548619</v>
+      </c>
+      <c r="E16">
+        <v>1.6779264878630172E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.30401190183865617</v>
+      </c>
+      <c r="G16">
+        <v>0.35931223568784287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.04406973679711634</v>
-      </c>
-      <c r="D17" t="n">
-        <v>49.81447287130448</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.001639125496674122</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.08846773689841173</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="C17">
+        <v>4.4069736797116343E-2</v>
+      </c>
+      <c r="D17">
+        <v>49.814472871304481</v>
+      </c>
+      <c r="E17">
+        <v>1.6391254966741219E-3</v>
+      </c>
+      <c r="F17">
+        <v>8.8467736898411725E-2</v>
+      </c>
+      <c r="G17">
         <v>0.1583347820766694</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.06391609141185925</v>
-      </c>
-      <c r="D18" t="n">
-        <v>72.24791054082762</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.000530120260049883</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.08846773689841173</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="C18">
+        <v>6.3916091411859249E-2</v>
+      </c>
+      <c r="D18">
+        <v>72.247910540827618</v>
+      </c>
+      <c r="E18">
+        <v>5.3012026004988302E-4</v>
+      </c>
+      <c r="F18">
+        <v>8.8467736898411725E-2</v>
+      </c>
+      <c r="G18">
         <v>0.1583347820766694</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.07626196879682498</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>7.626196879682498E-2</v>
+      </c>
+      <c r="D19">
         <v>86.20314192551038</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.000186314762663306</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.08846773689841173</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="E19">
+        <v>1.86314762663306E-4</v>
+      </c>
+      <c r="F19">
+        <v>8.8467736898411725E-2</v>
+      </c>
+      <c r="G19">
         <v>0.1583347820766694</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.0674186549736093</v>
-      </c>
-      <c r="D20" t="n">
-        <v>76.20705280505449</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6.799177294186112e-05</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.08846773689841173</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="C20">
+        <v>6.7418654973609299E-2</v>
+      </c>
+      <c r="D20">
+        <v>76.207052805054488</v>
+      </c>
+      <c r="E20">
+        <v>6.7991772941861117E-5</v>
+      </c>
+      <c r="F20">
+        <v>8.8467736898411725E-2</v>
+      </c>
+      <c r="G20">
         <v>0.1583347820766694</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.05422755186164416</v>
-      </c>
-      <c r="D21" t="n">
-        <v>61.29641580400563</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.002148091171981568</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.08846773689841173</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="C21">
+        <v>5.4227551861644158E-2</v>
+      </c>
+      <c r="D21">
+        <v>61.296415804005633</v>
+      </c>
+      <c r="E21">
+        <v>2.1480911719815679E-3</v>
+      </c>
+      <c r="F21">
+        <v>8.8467736898411725E-2</v>
+      </c>
+      <c r="G21">
         <v>0.1583347820766694</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.0143992940769604</v>
-      </c>
-      <c r="D22" t="n">
-        <v>13.03062911120579</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.00177027674883942</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="C22">
+        <v>1.43992940769604E-2</v>
+      </c>
+      <c r="D22">
+        <v>13.030629111205791</v>
+      </c>
+      <c r="E22">
+        <v>1.77027674883942E-3</v>
+      </c>
+      <c r="F22">
         <v>0.1105034450299688</v>
       </c>
-      <c r="G22" t="n">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.02601583867451768</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>2.6015838674517681E-2</v>
+      </c>
+      <c r="D23">
         <v>23.54301141241536</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.0008689543200703718</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E23">
+        <v>8.6895432007037181E-4</v>
+      </c>
+      <c r="F23">
         <v>0.1105034450299688</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.03698192200153556</v>
-      </c>
-      <c r="D24" t="n">
-        <v>33.46675933180723</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.0004283775436890523</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="C24">
+        <v>3.6981922001535557E-2</v>
+      </c>
+      <c r="D24">
+        <v>33.466759331807232</v>
+      </c>
+      <c r="E24">
+        <v>4.283775436890523E-4</v>
+      </c>
+      <c r="F24">
         <v>0.1105034450299688</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.04586814268023749</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>4.5868142680237492E-2</v>
+      </c>
+      <c r="D25">
         <v>41.50833729011611</v>
       </c>
-      <c r="E25" t="n">
-        <v>0.0002717130987368765</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E25">
+        <v>2.7171309873687651E-4</v>
+      </c>
+      <c r="F25">
         <v>0.1105034450299688</v>
       </c>
-      <c r="G25" t="n">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.06506272162058638</v>
-      </c>
-      <c r="D26" t="n">
-        <v>58.87845542095202</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.003257851001242666</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="C26">
+        <v>6.5062721620586378E-2</v>
+      </c>
+      <c r="D26">
+        <v>58.878455420952022</v>
+      </c>
+      <c r="E26">
+        <v>3.2578510012426661E-3</v>
+      </c>
+      <c r="F26">
         <v>0.1105034450299688</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.1777992259950008</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26">
+        <v>0.17779922599500081</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.01192225170460959</v>
-      </c>
-      <c r="D27" t="n">
-        <v>8.520429204415935</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.0005062941329958158</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="C27">
+        <v>1.1922251704609589E-2</v>
+      </c>
+      <c r="D27">
+        <v>8.5204292044159349</v>
+      </c>
+      <c r="E27">
+        <v>5.0629413299581576E-4</v>
+      </c>
+      <c r="F27">
         <v>0.1399254828434062</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>0.2047041660059262</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.02138188686229955</v>
-      </c>
-      <c r="D28" t="n">
-        <v>15.28090982986173</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6.344636034274806e-05</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="C28">
+        <v>2.138188686229955E-2</v>
+      </c>
+      <c r="D28">
+        <v>15.280909829861731</v>
+      </c>
+      <c r="E28">
+        <v>6.344636034274806E-5</v>
+      </c>
+      <c r="F28">
         <v>0.1399254828434062</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>0.2047041660059262</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.03005241998005103</v>
-      </c>
-      <c r="D29" t="n">
-        <v>21.47744597292788</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3.068590781829157e-05</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="C29">
+        <v>3.005241998005103E-2</v>
+      </c>
+      <c r="D29">
+        <v>21.477445972927882</v>
+      </c>
+      <c r="E29">
+        <v>3.0685907818291571E-5</v>
+      </c>
+      <c r="F29">
         <v>0.1399254828434062</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>0.2047041660059262</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.03967146672912603</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>3.9671466729126033E-2</v>
+      </c>
+      <c r="D30">
         <v>28.35185265969265</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.0002317593571879934</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E30">
+        <v>2.317593571879934E-4</v>
+      </c>
+      <c r="F30">
         <v>0.1399254828434062</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>0.2047041660059262</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.06373584718960849</v>
-      </c>
-      <c r="D31" t="n">
-        <v>45.54984974462211</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.004620493970548934</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="C31">
+        <v>6.3735847189608494E-2</v>
+      </c>
+      <c r="D31">
+        <v>45.549849744622108</v>
+      </c>
+      <c r="E31">
+        <v>4.6204939705489336E-3</v>
+      </c>
+      <c r="F31">
         <v>0.1399254828434062</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>0.2047041660059262</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>18</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.005692035826508124</v>
-      </c>
-      <c r="D32" t="n">
-        <v>5.408405288607159</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.01906786657864476</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="C32">
+        <v>5.6920358265081239E-3</v>
+      </c>
+      <c r="D32">
+        <v>5.4084052886071587</v>
+      </c>
+      <c r="E32">
+        <v>1.906786657864476E-2</v>
+      </c>
+      <c r="F32">
         <v>0.1052442545032347</v>
       </c>
-      <c r="G32" t="n">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.0108767043610881</v>
-      </c>
-      <c r="D33" t="n">
-        <v>10.33472507589837</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.002681549912343795</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="C33">
+        <v>1.08767043610881E-2</v>
+      </c>
+      <c r="D33">
+        <v>10.334725075898371</v>
+      </c>
+      <c r="E33">
+        <v>2.6815499123437952E-3</v>
+      </c>
+      <c r="F33">
         <v>0.1052442545032347</v>
       </c>
-      <c r="G33" t="n">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="G33">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.01683852339020012</v>
-      </c>
-      <c r="D34" t="n">
-        <v>15.99947044109907</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.0007276517925693503</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="C34">
+        <v>1.683852339020012E-2</v>
+      </c>
+      <c r="D34">
+        <v>15.999470441099071</v>
+      </c>
+      <c r="E34">
+        <v>7.2765179256935027E-4</v>
+      </c>
+      <c r="F34">
         <v>0.1052442545032347</v>
       </c>
-      <c r="G34" t="n">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G34">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.02814185992701666</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>2.814185992701666E-2</v>
+      </c>
+      <c r="D35">
         <v>26.73956888178795</v>
       </c>
-      <c r="E35" t="n">
-        <v>0.002766672155211747</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E35">
+        <v>2.7666721552117471E-3</v>
+      </c>
+      <c r="F35">
         <v>0.1052442545032347</v>
       </c>
-      <c r="G35" t="n">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.05745338092028567</v>
-      </c>
-      <c r="D36" t="n">
-        <v>54.59051536017087</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.01669318606922427</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="C36">
+        <v>5.7453380920285672E-2</v>
+      </c>
+      <c r="D36">
+        <v>54.590515360170869</v>
+      </c>
+      <c r="E36">
+        <v>1.6693186069224271E-2</v>
+      </c>
+      <c r="F36">
         <v>0.1052442545032347</v>
       </c>
-      <c r="G36" t="n">
-        <v>0.1699154818133214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36">
+        <v>0.16991548181332139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.1425805683005972</v>
       </c>
-      <c r="D37" t="n">
-        <v>37.09466730649602</v>
-      </c>
-      <c r="E37" t="n">
-        <v>9.045544717426375e-06</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.3843694489089771</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="D37">
+        <v>37.094667306496021</v>
+      </c>
+      <c r="E37">
+        <v>9.0455447174263747E-6</v>
+      </c>
+      <c r="F37">
+        <v>0.38436944890897712</v>
+      </c>
+      <c r="G37">
+        <v>0.43125623807167401</v>
+      </c>
+      <c r="I37">
+        <f>SUM(D37:D41) / 5</f>
+        <v>44.458353269359165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.1989297204166961</v>
       </c>
-      <c r="D38" t="n">
-        <v>51.75482104036963</v>
-      </c>
-      <c r="E38" t="n">
-        <v>3.708778579025229e-06</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.3843694489089771</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="D38">
+        <v>51.754821040369627</v>
+      </c>
+      <c r="E38">
+        <v>3.7087785790252292E-6</v>
+      </c>
+      <c r="F38">
+        <v>0.38436944890897712</v>
+      </c>
+      <c r="G38">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.2245034268133302</v>
-      </c>
-      <c r="D39" t="n">
-        <v>58.40823911748904</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1.832525946168305e-06</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.3843694489089771</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="C39">
+        <v>0.22450342681333019</v>
+      </c>
+      <c r="D39">
+        <v>58.408239117489039</v>
+      </c>
+      <c r="E39">
+        <v>1.8325259461683049E-6</v>
+      </c>
+      <c r="F39">
+        <v>0.38436944890897712</v>
+      </c>
+      <c r="G39">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>19</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.173580598227272</v>
-      </c>
-      <c r="D40" t="n">
-        <v>45.15983221870941</v>
-      </c>
-      <c r="E40" t="n">
-        <v>4.565465724550222e-07</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.3843694489089771</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="C40">
+        <v>0.17358059822727201</v>
+      </c>
+      <c r="D40">
+        <v>45.159832218709411</v>
+      </c>
+      <c r="E40">
+        <v>4.5654657245502218E-7</v>
+      </c>
+      <c r="F40">
+        <v>0.38436944890897712</v>
+      </c>
+      <c r="G40">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.1148273235193147</v>
       </c>
-      <c r="D41" t="n">
-        <v>29.87420666373175</v>
-      </c>
-      <c r="E41" t="n">
-        <v>4.269028655485222e-06</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.3843694489089771</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.431256238071674</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="D41">
+        <v>29.874206663731751</v>
+      </c>
+      <c r="E41">
+        <v>4.2690286554852224E-6</v>
+      </c>
+      <c r="F41">
+        <v>0.38436944890897712</v>
+      </c>
+      <c r="G41">
+        <v>0.43125623807167401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>20</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.0295986253273531</v>
-      </c>
-      <c r="D42" t="n">
-        <v>22.38237370263639</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.001154117668695754</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.1322407789298359</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="C42">
+        <v>2.9598625327353099E-2</v>
+      </c>
+      <c r="D42">
+        <v>22.382373702636389</v>
+      </c>
+      <c r="E42">
+        <v>1.154117668695754E-3</v>
+      </c>
+      <c r="F42">
+        <v>0.13224077892983591</v>
+      </c>
+      <c r="G42">
         <v>0.2010336813249024</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="I42">
+        <f>SUM(D42:D46) / 5</f>
+        <v>45.400586861309371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>20</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.04894056318383867</v>
-      </c>
-      <c r="D43" t="n">
-        <v>37.00867733833108</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.0001729086118497706</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.1322407789298359</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="C43">
+        <v>4.8940563183838673E-2</v>
+      </c>
+      <c r="D43">
+        <v>37.008677338331083</v>
+      </c>
+      <c r="E43">
+        <v>1.729086118497706E-4</v>
+      </c>
+      <c r="F43">
+        <v>0.13224077892983591</v>
+      </c>
+      <c r="G43">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>20</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.06543851874573814</v>
-      </c>
-      <c r="D44" t="n">
-        <v>49.48437182184055</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2.520788301058566e-05</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.1322407789298359</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="C44">
+        <v>6.5438518745738139E-2</v>
+      </c>
+      <c r="D44">
+        <v>49.484371821840547</v>
+      </c>
+      <c r="E44">
+        <v>2.5207883010585659E-5</v>
+      </c>
+      <c r="F44">
+        <v>0.13224077892983591</v>
+      </c>
+      <c r="G44">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>20</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.0728960836268346</v>
-      </c>
-      <c r="D45" t="n">
-        <v>55.12375548355755</v>
-      </c>
-      <c r="E45" t="n">
-        <v>3.886628667717342e-06</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.1322407789298359</v>
-      </c>
-      <c r="G45" t="n">
+      <c r="C45">
+        <v>7.2896083626834599E-2</v>
+      </c>
+      <c r="D45">
+        <v>55.123755483557552</v>
+      </c>
+      <c r="E45">
+        <v>3.8866286677173421E-6</v>
+      </c>
+      <c r="F45">
+        <v>0.13224077892983591</v>
+      </c>
+      <c r="G45">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>20</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.08331665763679659</v>
-      </c>
-      <c r="D46" t="n">
-        <v>63.00375596018127</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.0006350025376085714</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.1322407789298359</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="C46">
+        <v>8.331665763679659E-2</v>
+      </c>
+      <c r="D46">
+        <v>63.003755960181273</v>
+      </c>
+      <c r="E46">
+        <v>6.3500253760857145E-4</v>
+      </c>
+      <c r="F46">
+        <v>0.13224077892983591</v>
+      </c>
+      <c r="G46">
         <v>0.2010336813249024</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>21</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.009367529741300184</v>
-      </c>
-      <c r="D47" t="n">
-        <v>6.686016935046396</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.002699035300159116</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="C47">
+        <v>9.3675297413001839E-3</v>
+      </c>
+      <c r="D47">
+        <v>6.6860169350463963</v>
+      </c>
+      <c r="E47">
+        <v>2.6990353001591161E-3</v>
+      </c>
+      <c r="F47">
         <v>0.1401062819957572</v>
       </c>
-      <c r="G47" t="n">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="G47">
+        <v>0.20457811216298591</v>
+      </c>
+      <c r="I47">
+        <f>SUM(D47:D51) / 5</f>
+        <v>21.759092047410348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>21</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.0173918092478189</v>
-      </c>
-      <c r="D48" t="n">
-        <v>12.41329724840288</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.0002723938439905093</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="C48">
+        <v>1.7391809247818898E-2</v>
+      </c>
+      <c r="D48">
+        <v>12.413297248402881</v>
+      </c>
+      <c r="E48">
+        <v>2.7239384399050932E-4</v>
+      </c>
+      <c r="F48">
         <v>0.1401062819957572</v>
       </c>
-      <c r="G48" t="n">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="G48">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>21</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.02534220029057061</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>2.5342200290570611E-2</v>
+      </c>
+      <c r="D49">
         <v>18.08784012364131</v>
       </c>
-      <c r="E49" t="n">
-        <v>7.669595165304202e-05</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E49">
+        <v>7.6695951653042024E-5</v>
+      </c>
+      <c r="F49">
         <v>0.1401062819957572</v>
       </c>
-      <c r="G49" t="n">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="G49">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>21</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
       </c>
-      <c r="C50" t="n">
-        <v>0.03658764191318926</v>
-      </c>
-      <c r="D50" t="n">
+      <c r="C50">
+        <v>3.6587641913189257E-2</v>
+      </c>
+      <c r="D50">
         <v>26.11420515341149</v>
       </c>
-      <c r="E50" t="n">
-        <v>0.0003894356755125774</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="E50">
+        <v>3.8943567551257739E-4</v>
+      </c>
+      <c r="F50">
         <v>0.1401062819957572</v>
       </c>
-      <c r="G50" t="n">
-        <v>0.2045781121629859</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="G50">
+        <v>0.20457811216298591</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>21</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
       </c>
-      <c r="C51" t="n">
-        <v>0.06374009312542663</v>
-      </c>
-      <c r="D51" t="n">
-        <v>45.49410077654966</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.008165148904453931</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="C51">
+        <v>6.3740093125426625E-2</v>
+      </c>
+      <c r="D51">
+        <v>45.494100776549658</v>
+      </c>
+      <c r="E51">
+        <v>8.1651489044539307E-3</v>
+      </c>
+      <c r="F51">
         <v>0.1401062819957572</v>
       </c>
-      <c r="G51" t="n">
-        <v>0.2045781121629859</v>
+      <c r="G51">
+        <v>0.20457811216298591</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>